--- a/static/handbalnl/standen.xlsx
+++ b/static/handbalnl/standen.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="BENE 24-25" sheetId="1" r:id="rId4"/>
+    <sheet name="Super Handball League" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -50,40 +50,40 @@
     <t>Strafpunten</t>
   </si>
   <si>
+    <t>KRAS/Volendam HS1</t>
+  </si>
+  <si>
     <t>Green Park/Handbal Aalsmeer HS1</t>
   </si>
   <si>
     <t>Herpertz/Bevo HC HS1</t>
   </si>
   <si>
+    <t>HC Visé BM HS1</t>
+  </si>
+  <si>
+    <t>KTSV Eupen HS1</t>
+  </si>
+  <si>
+    <t>Sporting Pelt HS1</t>
+  </si>
+  <si>
+    <t>HUBO Handbal HS1</t>
+  </si>
+  <si>
     <t>Sezoens Achilles Bocholt HS1</t>
   </si>
   <si>
-    <t>KTSV Eupen (B) HS1</t>
+    <t>JD Techniek/ Hurry-up HS1</t>
+  </si>
+  <si>
+    <t>LIMBURG LIONS/ Sittardia HS1</t>
+  </si>
+  <si>
+    <t>Biobest/ Sasja HC HS1</t>
   </si>
   <si>
     <t>LvanRaak Milieu/Handbal Houten HS1</t>
-  </si>
-  <si>
-    <t>JD Techniek/ Hurry-up HS1</t>
-  </si>
-  <si>
-    <t>Sporting Pelt HS1</t>
-  </si>
-  <si>
-    <t>Biobest/ Sasja HC HS1</t>
-  </si>
-  <si>
-    <t>KEMBIT-LIONS/Sittardia HS1</t>
-  </si>
-  <si>
-    <t>HUBO Handbal HS1</t>
-  </si>
-  <si>
-    <t>HC Visé BM HS1</t>
-  </si>
-  <si>
-    <t>KRAS/Volendam HS1</t>
   </si>
 </sst>
 </file>
@@ -486,13 +486,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -521,13 +521,13 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -556,13 +556,13 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -591,13 +591,13 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -606,13 +606,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -641,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -676,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -705,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -740,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -775,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -845,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -880,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="K13">
         <v>0</v>
